--- a/testing/analysis/ec1477_01_22-23.xlsx
+++ b/testing/analysis/ec1477_01_22-23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sidharth Mudgal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\src\wifiindoornavigation\testing\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ec1477_01_22-23" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -589,3048 +589,10 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>pred</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ec1477_01_22-23'!$A$1:$A$500</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="500"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ec1477_01_22-23'!$B$1:$B$500</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="500"/>
-                <c:pt idx="0">
-                  <c:v>5.6017881007300003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1779253799399996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3561609271900004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3200303546000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4502858349599999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0118869565199997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4655795086400003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.212959343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.71387558726</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.9359586436299998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.4291454997499997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.0947674262799998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.7694375973300001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5130338825999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9504407262700001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2434484272999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.8035575100800001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.8816108858999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.3990324376699999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.96968688799</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.0823873117299998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.6189866888199997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.7991608457899999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.5514296528899996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.00548117678</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.7295134490999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.94342996477</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.2313605660900002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.7727728908799998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.6970592421499999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.3380109993999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.28341749293</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.5487618550100004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.5879003175399999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.9682024558700002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.3238999874699999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.2871312496999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.85888277865</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.7063682660000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.36069866375</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.7693827139499998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.6028123973100001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.4716621452199998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.9048722829800004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.6044277894199999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.4497946522699996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.05163859459</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.9935213993699996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.8618899983799997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.2241476438000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.5698370339599999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.2378985204899999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.5118172230600004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.6373943883599997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.0459679431</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.2159133645400004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7.6575520001199999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.2977341078900002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.1687157892400002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.4994975680999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.7011801415000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7.7773711376100003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.4087820217899996</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.4176343791000008</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.3509710556499996</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>8.5434742118399996</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8.0492222767499992</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8.3790647294399996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>8.5057626526799996</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7.5570520784899999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10.233898509899999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.8306435369600003</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>8.2031086038699996</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>8.1114429042299996</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>8.2188775042</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.8080459177600003</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.5854186914400001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.3604165440700005</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8.1321802872600006</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8.2903472657700004</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8.3821242147500001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.7715643350399999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9.3036377868100004</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.2851325762099997</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>9.7918989521600004</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>9.3933054755200001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>10.272154454800001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>9.4022751106999998</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>9.7077950131899993</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9.5420862703200005</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>10.404119080299999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>10.3485834941</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.4600695442500005</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.7903904626399996</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8.6076291937500002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>10.2897882452</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9.8416874920299993</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>10.094664823</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>8.3045225293100007</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9.6910873876599997</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>9.7038208691500003</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>10.3535626194</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>10.974106667999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>12.395034284099999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>10.418175762500001</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>12.733765461699999</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>12.6373174375</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>12.4155040224</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>13.7920975571</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>13.137209779200001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>12.754480710899999</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>11.865596976899999</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>11.699079747100001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>12.630825188099999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>11.6922296131</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>10.6771783077</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>10.932962588800001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>12.084164986299999</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>12.806641357</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>14.6277975855</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>14.044602123800001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>14.789932434900001</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>14.628678020400001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>13.1150290001</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>13.932232520299999</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>13.2523332954</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>13.931580655499999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>14.303709550900001</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>15.208359186499999</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>15.8835324677</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>14.6047140017</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>13.5407810271</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>14.075249919299999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>15.9256166094</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>14.7901704136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>14.1121088415</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>15.1684443954</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>14.746170473499999</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>14.4492916182</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>14.3899554269</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>15.0597258965</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>15.022638904100001</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>14.814749576700001</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>14.4066438872</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>14.2927453586</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>14.5632758003</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>14.186724654700001</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>14.3354092527</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>13.319370366499999</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>14.1278262916</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>15.3714101138</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>14.934137376100001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>16.231435123899999</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>14.194514548900001</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>13.995874514300001</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>15.6926869615</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>15.118494954499999</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>14.449578170200001</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>14.884804775999999</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>15.4364081224</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>16.070119913500001</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>15.481262363400001</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>14.206706367700001</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>16.361756501999999</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>16.395274300200001</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>16.178075154399998</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>15.432472001400001</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>17.1069276325</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>16.680465176399998</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>17.314809551500002</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>17.967353467100001</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>16.4818135949</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>16.626220054400001</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>17.073431033999999</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>16.647339463000002</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>17.2021828088</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>15.909087657500001</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>16.302563285800002</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>17.8316502568</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>18.328495076399999</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>18.526989646600001</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>18.6334991212</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>18.1109757085</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>18.294929808100001</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>18.160250054999999</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>18.883061143900001</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>19.928501240500001</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>19.214938129</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>19.108961782000002</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>19.824398587600001</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>19.131989263400001</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>18.994842576300002</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>19.408734851599998</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>19.5571274962</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>19.458176228199999</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>20.472109418500001</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>20.001964580900001</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>19.486208144399999</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>19.594704059000001</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>20.403678223</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>21.012554166200001</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>20.785370138699999</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>20.5781728804</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>18.609109825899999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>19.394052092799999</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>21.368326570200001</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>20.528113517400001</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>20.4497735699</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>20.881803510400001</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>20.2308294459</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>20.666927902000001</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>21.579758456299999</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>22.829160310799999</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>20.323743445600002</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>21.558939666499999</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>21.529137222300001</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>20.2564428353</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>21.293355227700001</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>20.5957667648</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>22.294034896399999</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>18.895291412999999</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>20.201442948499999</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>20.147399877800002</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>19.830089856099999</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>19.826281714</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>22.0051225134</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>21.753085642799999</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>20.408044836199998</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>21.4669759045</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>20.980720639400001</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>21.9562675351</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>23.248619939299999</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>22.7551572548</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>23.154101501700001</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>22.417136308900002</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>21.9702860437</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>22.746306145399998</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>22.520956273700001</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>22.860832692300001</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>22.938828185999999</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>23.237923314500001</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>23.0553341663</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>25.138919642899999</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>24.424813696499999</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>23.835025641200001</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>25.2061129965</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>25.008812719600002</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>24.0385925167</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>25.084722307300002</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>26.292986600700001</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>25.8122789096</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>24.636001601699999</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>25.720374545799999</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>25.380183851999998</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>24.2050094246</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>24.127062125399998</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>23.976465068100001</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>26.385213028599999</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>27.7950318826</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>26.502424592899999</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>25.975008259599999</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>25.685146686300001</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>25.641535408500001</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>25.988905227899998</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>26.862143618400001</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>27.162752320300001</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>25.872313317</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>25.841756543199999</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>26.321353186700001</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>27.4848675834</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>27.459261661500001</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>25.891882427100001</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>26.379395490099999</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>25.139974575299998</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>25.648728100700001</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>24.553045710700001</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>26.945221143800001</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>26.163865784199999</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>26.045495930000001</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>27.331165991300001</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>27.095368173299999</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>26.188749297099999</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>26.209223022100002</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>26.412812754299999</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>26.916268648300001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>26.699768522199999</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>26.065568874299998</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>25.7447383499</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>26.141681159699999</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>26.6778084372</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>28.239553556400001</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>26.741502995299999</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>26.750943637100001</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>27.3006432924</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>26.766509191499999</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>29.625422647499999</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>28.834985314400001</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>28.708451283399999</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>29.361099619499999</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>28.700563266700001</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>27.308059344</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>28.666581987899999</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>29.4949878527</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>28.758846153099999</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>30.1651132006</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>30.5710301035</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>28.1534865518</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>30.938184995299999</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>31.457141349899999</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>31.086285633100001</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>31.538849053300002</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>31.401807406500001</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>31.5966514504</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>30.363422909099999</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>31.316973288</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>30.066751582199998</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>30.964492810100001</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>31.413709335099998</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>31.591502549000001</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>32.648919263400003</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>31.4136885723</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>32.524544460400001</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>31.190412720200001</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>31.570414019899999</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>29.663035412700001</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>31.4262352505</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>32.591608252299999</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>33.288639615900003</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>30.7976684916</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>31.324394746300001</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>31.597946175499999</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>31.242104156700002</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>30.899809056399999</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>30.010460760200001</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>31.185269640600001</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>33.135540840600001</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>31.6525277422</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>30.929387343199998</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>32.743880870700004</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>33.356214156199997</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>33.035943845299997</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>33.645250673</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>34.200273511500001</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>33.173015555500001</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>33.480601717900001</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>32.955498624800001</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>33.778772189100003</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>33.829346028700002</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>34.542959341200003</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>34.6715300324</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>34.011169929700003</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>34.726496769299999</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>33.357369061500002</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>33.0810602082</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>34.002378067999999</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>33.6793945593</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>34.543109364999999</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>34.443542470700002</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>33.3027641726</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>32.559949906</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>35.149466386999997</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>34.716736703700001</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>33.497138298599999</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>35.984415927500002</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>33.583028559900001</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>34.474035017699997</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>34.418602255899998</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>35.339294439100001</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>34.474277269700004</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>34.852956822099998</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>33.6525668815</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>36.409201799400002</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>36.782031032100001</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>36.223686447699997</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>35.862340098399997</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>34.353003742399999</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>36.3096571345</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>35.455172282100001</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>36.246956836700001</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>36.661445204000003</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>36.694126746599999</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>37.887718350299998</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>37.571472940699998</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>36.936711783699998</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>36.232744878299997</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>37.642219037899999</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>38.186271753200003</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>37.067337245300003</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>37.080956483199998</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>36.7370038042</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>38.091269271199998</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>33.367408864799998</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>38.478642243000003</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>38.456989557699998</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>38.3152742089</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>38.526665312699997</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>38.360203932799998</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>37.737182682799997</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>37.523629924700003</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>37.830573502900002</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>37.6340748139</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>37.9506549046</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>38.804249099800003</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>37.557229537700003</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>38.544883377700003</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>38.294896884400004</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>38.217209635400003</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>38.5214350165</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>38.964521233500001</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>38.5170706193</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>38.090123848399998</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>39.871972578600001</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>39.200294026800002</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>39.406645977399997</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>39.038437977500003</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>39.990387401299998</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>39.537206125499999</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>39.133727470099998</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>39.368997103399998</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>40.1793418723</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>38.971136297800001</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>39.564660196299997</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>39.868695523900001</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>39.765255433900002</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>38.865788459400001</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>39.530939886100001</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>38.677641636099999</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>39.205604364700001</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>40.742547528700001</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>39.684762522200003</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>40.961133066099997</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>39.667847419799998</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>41.153514617399999</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>41.583245121300003</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>41.242801615899999</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>41.078055316399997</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>42.209173890499997</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>41.743002707099997</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>41.746263483100002</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>42.314361624699998</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>42.642754421699998</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>43.120390975900001</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>42.733135480100003</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>42.686599362300001</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>41.386699181499999</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>42.831156316200001</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>42.290538174700004</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>42.644620385400003</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>42.241063423100002</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>42.998444183700002</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>43.724147888300003</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>43.390018576599999</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>42.934385304700001</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>43.170280770799998</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>43.548830837200001</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>42.7584723119</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>42.669734552199998</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>42.254637617599997</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>42.8608734269</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>40.9249085947</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>40.859974979199997</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>41.746872002099998</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>42.210343185399999</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>41.225880367599999</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>42.103604904999997</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>42.466792485299997</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>42.1720901148</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>42.267175579300002</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>42.3992250923</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>42.2099780936</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>40.737405295999999</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>43.755621361400003</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>42.169057707299999</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>43.657878849600003</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>43.789273366499998</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>40.960954902799998</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>44.052751321199999</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>43.445927968100001</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>44.2578194544</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>43.385585645100001</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>42.475556060800002</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>41.920039492000001</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>45.495606476399999</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>44.260251434099999</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>44.297203430099998</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>42.701298487099997</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>42.563773471499999</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>44.391697796800003</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>43.529549232400001</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>45.029890659899998</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>45.471671121699998</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>44.427456759099996</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>46.156259693499997</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>47.128586458599997</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>46.077965471399999</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>47.910677054499999</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>47.136277521499998</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>47.602797053300002</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>46.826285980999998</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>45.335299948699998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>run2</c:v>
+            <c:v>continuous prediction</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3661,10 +623,59 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5881822560231186E-2"/>
-                  <c:y val="-1.9194624481463626E-2"/>
+                  <c:x val="-6.0609480180553531E-2"/>
+                  <c:y val="0.17445125906880687"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0976x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.8848</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3695,12 +706,1371 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ec1477_01_22-23'!$A$1:$A$450</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="450"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ec1477_01_22-23'!$D$1:$D$460</c:f>
+              <c:f>'ec1477_01_22-23'!$D$1:$D$450</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="460"/>
+                <c:ptCount val="450"/>
                 <c:pt idx="0">
                   <c:v>19.407415583199999</c:v>
                 </c:pt>
@@ -5050,36 +3420,6 @@
                 </c:pt>
                 <c:pt idx="449">
                   <c:v>41.574954010399999</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>41.491030177200003</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>39.235612457599998</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>41.1631243215</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>40.802782249099998</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>41.468432043699998</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>44.313318515100001</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>41.570192457700003</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>41.073085502799998</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>40.674294060400001</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>44.256134010700002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5090,7 +3430,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>avg2</c:v>
+            <c:v>averaged prediction</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5121,8 +3461,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11537850531841407"/>
-                  <c:y val="7.6339862279119874E-2"/>
+                  <c:x val="-0.14951417434840561"/>
+                  <c:y val="7.5968480130459884E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5140,10 +3480,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="accent6"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -5155,6 +3492,1365 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ec1477_01_22-23'!$A$1:$A$450</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="450"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'ec1477_01_22-23'!$E$1:$E$450</c:f>
@@ -6525,11 +6221,2917 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="627975288"/>
-        <c:axId val="627976464"/>
+        <c:axId val="358167000"/>
+        <c:axId val="358173664"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>pred</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ec1477_01_22-23'!$A$1:$A$450</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="450"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="279">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="280">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="281">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="282">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="283">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="284">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="285">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="286">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="287">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="288">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="289">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="290">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="291">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="292">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="293">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="294">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="295">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="296">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="297">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="298">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="299">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="300">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="301">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="302">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="303">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="304">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="305">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="306">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="307">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="308">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="309">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="310">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="311">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="312">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="313">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="314">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="315">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="316">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="317">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="318">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="319">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="320">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="321">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="322">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="323">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="324">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="325">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="326">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="327">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="328">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="329">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="330">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="331">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="332">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="333">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="334">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="335">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="336">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="337">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="338">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="339">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="340">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="341">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="342">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="343">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="344">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="345">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="346">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="347">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="348">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="349">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="350">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="351">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="352">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="353">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="354">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="355">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="356">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="357">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="358">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="359">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="360">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="361">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="362">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="363">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="364">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="365">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="366">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="367">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="368">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="369">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="370">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="371">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="372">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="373">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="374">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="375">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="376">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="377">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="378">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="379">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="380">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="381">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="382">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="383">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="384">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="385">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="386">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="387">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="388">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="389">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="390">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="391">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="392">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="393">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="394">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="395">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="396">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="397">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="398">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="399">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="400">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="401">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="402">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="403">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="404">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="405">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="406">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="407">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="408">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="409">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="410">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="411">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="412">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="413">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="414">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="415">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="416">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="417">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="418">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="419">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="420">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="421">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="422">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="423">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="424">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="425">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="426">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="427">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="428">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="429">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="430">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="431">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="432">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="433">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="434">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="435">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="436">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="437">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="438">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="439">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="440">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="441">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="442">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="443">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="444">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="445">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="446">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="447">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="448">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="449">
+                        <c:v>44</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ec1477_01_22-23'!$B$1:$B$500</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="500"/>
+                      <c:pt idx="0">
+                        <c:v>5.6017881007300003</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.1779253799399996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.3561609271900004</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.3200303546000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.4502858349599999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.0118869565199997</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.4655795086400003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>11.212959343</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.71387558726</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3.9359586436299998</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.4291454997499997</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5.0947674262799998</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.7694375973300001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.5130338825999998</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.9504407262700001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4.2434484272999997</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5.8035575100800001</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.8816108858999998</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.3990324376699999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>6.96968688799</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>6.0823873117299998</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4.6189866888199997</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.7991608457899999</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5.5514296528899996</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.00548117678</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.7295134490999997</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.94342996477</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.2313605660900002</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3.7727728908799998</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3.6970592421499999</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>4.3380109993999998</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4.28341749293</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4.5487618550100004</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5.5879003175399999</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3.9682024558700002</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4.3238999874699999</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>5.2871312496999998</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>6.85888277865</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>5.7063682660000001</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>6.36069866375</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>5.7693827139499998</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>5.6028123973100001</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>5.4716621452199998</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4.9048722829800004</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>5.6044277894199999</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>5.4497946522699996</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>7.05163859459</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>6.9935213993699996</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>6.8618899983799997</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>9.2241476438000003</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>7.5698370339599999</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>7.2378985204899999</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>6.5118172230600004</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>7.6373943883599997</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>6.0459679431</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>7.2159133645400004</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>7.6575520001199999</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>7.2977341078900002</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>8.1687157892400002</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>7.4994975680999998</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>9.7011801415000001</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>7.7773711376100003</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>7.4087820217899996</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>8.4176343791000008</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>7.3509710556499996</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>8.5434742118399996</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>8.0492222767499992</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>8.3790647294399996</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>8.5057626526799996</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>7.5570520784899999</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>10.233898509899999</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>8.8306435369600003</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>8.2031086038699996</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>8.1114429042299996</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>8.2188775042</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>7.8080459177600003</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>7.5854186914400001</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>8.3604165440700005</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>8.1321802872600006</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>8.2903472657700004</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>8.3821242147500001</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>7.7715643350399999</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>9.3036377868100004</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>9.2851325762099997</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>9.7918989521600004</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>9.3933054755200001</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>10.272154454800001</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>9.4022751106999998</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>9.7077950131899993</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>9.5420862703200005</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>10.404119080299999</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>10.3485834941</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>9.4600695442500005</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>9.7903904626399996</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>8.6076291937500002</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>10.2897882452</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>9.8416874920299993</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>10.094664823</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>8.3045225293100007</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>9.6910873876599997</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>9.7038208691500003</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>10.3535626194</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>10.974106667999999</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>12.395034284099999</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>10.418175762500001</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>12.733765461699999</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>12.6373174375</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>12.4155040224</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>13.7920975571</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>13.137209779200001</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>12.754480710899999</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>11.865596976899999</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>11.699079747100001</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>12.630825188099999</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>11.6922296131</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>10.6771783077</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>10.932962588800001</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>12.084164986299999</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>12.806641357</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>14.6277975855</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>14.044602123800001</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>14.789932434900001</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>14.628678020400001</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>13.1150290001</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>13.932232520299999</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>13.2523332954</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>13.931580655499999</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>14.303709550900001</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>15.208359186499999</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>15.8835324677</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>14.6047140017</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>13.5407810271</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>14.075249919299999</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>15.9256166094</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>14.7901704136</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>14.1121088415</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>15.1684443954</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>14.746170473499999</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>14.4492916182</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>14.3899554269</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>15.0597258965</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>15.022638904100001</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>14.814749576700001</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>14.4066438872</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>14.2927453586</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>14.5632758003</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>14.186724654700001</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>14.3354092527</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>13.319370366499999</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>14.1278262916</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>15.3714101138</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>14.934137376100001</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>16.231435123899999</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>14.194514548900001</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>13.995874514300001</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>15.6926869615</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>15.118494954499999</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>14.449578170200001</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>14.884804775999999</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>15.4364081224</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>16.070119913500001</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>15.481262363400001</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>14.206706367700001</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>16.361756501999999</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>16.395274300200001</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>16.178075154399998</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>15.432472001400001</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>17.1069276325</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>16.680465176399998</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>17.314809551500002</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>17.967353467100001</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>16.4818135949</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>16.626220054400001</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>17.073431033999999</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>16.647339463000002</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>17.2021828088</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>15.909087657500001</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>16.302563285800002</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>17.8316502568</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>18.328495076399999</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>18.526989646600001</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>18.6334991212</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>18.1109757085</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>18.294929808100001</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>18.160250054999999</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>18.883061143900001</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>19.928501240500001</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>19.214938129</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>19.108961782000002</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>19.824398587600001</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>19.131989263400001</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>18.994842576300002</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>19.408734851599998</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>19.5571274962</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>19.458176228199999</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>20.472109418500001</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>20.001964580900001</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>19.486208144399999</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>19.594704059000001</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>20.403678223</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>21.012554166200001</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>20.785370138699999</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>20.5781728804</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>18.609109825899999</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>19.394052092799999</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>21.368326570200001</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>20.528113517400001</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>20.4497735699</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>20.881803510400001</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>20.2308294459</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>20.666927902000001</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>21.579758456299999</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>22.829160310799999</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>20.323743445600002</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>21.558939666499999</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>21.529137222300001</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>20.2564428353</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>21.293355227700001</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>20.5957667648</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>22.294034896399999</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>18.895291412999999</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>20.201442948499999</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>20.147399877800002</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>19.830089856099999</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>19.826281714</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>22.0051225134</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>21.753085642799999</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>20.408044836199998</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>21.4669759045</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>20.980720639400001</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>21.9562675351</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>23.248619939299999</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>22.7551572548</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>23.154101501700001</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>22.417136308900002</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>21.9702860437</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>22.746306145399998</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>22.520956273700001</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>22.860832692300001</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>22.938828185999999</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>23.237923314500001</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>23.0553341663</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>25.138919642899999</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>24.424813696499999</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>23.835025641200001</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>25.2061129965</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>25.008812719600002</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>24.0385925167</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>25.084722307300002</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>26.292986600700001</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>25.8122789096</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>24.636001601699999</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>25.720374545799999</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>25.380183851999998</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>24.2050094246</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>24.127062125399998</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>23.976465068100001</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>26.385213028599999</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>27.7950318826</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>26.502424592899999</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>25.975008259599999</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>25.685146686300001</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>25.641535408500001</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>25.988905227899998</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>26.862143618400001</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>27.162752320300001</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>25.872313317</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>25.841756543199999</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>26.321353186700001</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>27.4848675834</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>27.459261661500001</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>25.891882427100001</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>26.379395490099999</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>25.139974575299998</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>25.648728100700001</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>24.553045710700001</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>26.945221143800001</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>26.163865784199999</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>26.045495930000001</c:v>
+                      </c:pt>
+                      <c:pt idx="279">
+                        <c:v>27.331165991300001</c:v>
+                      </c:pt>
+                      <c:pt idx="280">
+                        <c:v>27.095368173299999</c:v>
+                      </c:pt>
+                      <c:pt idx="281">
+                        <c:v>26.188749297099999</c:v>
+                      </c:pt>
+                      <c:pt idx="282">
+                        <c:v>26.209223022100002</c:v>
+                      </c:pt>
+                      <c:pt idx="283">
+                        <c:v>26.412812754299999</c:v>
+                      </c:pt>
+                      <c:pt idx="284">
+                        <c:v>26.916268648300001</c:v>
+                      </c:pt>
+                      <c:pt idx="285">
+                        <c:v>26.699768522199999</c:v>
+                      </c:pt>
+                      <c:pt idx="286">
+                        <c:v>26.065568874299998</c:v>
+                      </c:pt>
+                      <c:pt idx="287">
+                        <c:v>25.7447383499</c:v>
+                      </c:pt>
+                      <c:pt idx="288">
+                        <c:v>26.141681159699999</c:v>
+                      </c:pt>
+                      <c:pt idx="289">
+                        <c:v>26.6778084372</c:v>
+                      </c:pt>
+                      <c:pt idx="290">
+                        <c:v>28.239553556400001</c:v>
+                      </c:pt>
+                      <c:pt idx="291">
+                        <c:v>26.741502995299999</c:v>
+                      </c:pt>
+                      <c:pt idx="292">
+                        <c:v>26.750943637100001</c:v>
+                      </c:pt>
+                      <c:pt idx="293">
+                        <c:v>27.3006432924</c:v>
+                      </c:pt>
+                      <c:pt idx="294">
+                        <c:v>26.766509191499999</c:v>
+                      </c:pt>
+                      <c:pt idx="295">
+                        <c:v>29.625422647499999</c:v>
+                      </c:pt>
+                      <c:pt idx="296">
+                        <c:v>28.834985314400001</c:v>
+                      </c:pt>
+                      <c:pt idx="297">
+                        <c:v>28.708451283399999</c:v>
+                      </c:pt>
+                      <c:pt idx="298">
+                        <c:v>29.361099619499999</c:v>
+                      </c:pt>
+                      <c:pt idx="299">
+                        <c:v>28.700563266700001</c:v>
+                      </c:pt>
+                      <c:pt idx="300">
+                        <c:v>27.308059344</c:v>
+                      </c:pt>
+                      <c:pt idx="301">
+                        <c:v>28.666581987899999</c:v>
+                      </c:pt>
+                      <c:pt idx="302">
+                        <c:v>29.4949878527</c:v>
+                      </c:pt>
+                      <c:pt idx="303">
+                        <c:v>28.758846153099999</c:v>
+                      </c:pt>
+                      <c:pt idx="304">
+                        <c:v>30.1651132006</c:v>
+                      </c:pt>
+                      <c:pt idx="305">
+                        <c:v>30.5710301035</c:v>
+                      </c:pt>
+                      <c:pt idx="306">
+                        <c:v>28.1534865518</c:v>
+                      </c:pt>
+                      <c:pt idx="307">
+                        <c:v>30.938184995299999</c:v>
+                      </c:pt>
+                      <c:pt idx="308">
+                        <c:v>31.457141349899999</c:v>
+                      </c:pt>
+                      <c:pt idx="309">
+                        <c:v>31.086285633100001</c:v>
+                      </c:pt>
+                      <c:pt idx="310">
+                        <c:v>31.538849053300002</c:v>
+                      </c:pt>
+                      <c:pt idx="311">
+                        <c:v>31.401807406500001</c:v>
+                      </c:pt>
+                      <c:pt idx="312">
+                        <c:v>31.5966514504</c:v>
+                      </c:pt>
+                      <c:pt idx="313">
+                        <c:v>30.363422909099999</c:v>
+                      </c:pt>
+                      <c:pt idx="314">
+                        <c:v>31.316973288</c:v>
+                      </c:pt>
+                      <c:pt idx="315">
+                        <c:v>30.066751582199998</c:v>
+                      </c:pt>
+                      <c:pt idx="316">
+                        <c:v>30.964492810100001</c:v>
+                      </c:pt>
+                      <c:pt idx="317">
+                        <c:v>31.413709335099998</c:v>
+                      </c:pt>
+                      <c:pt idx="318">
+                        <c:v>31.591502549000001</c:v>
+                      </c:pt>
+                      <c:pt idx="319">
+                        <c:v>32.648919263400003</c:v>
+                      </c:pt>
+                      <c:pt idx="320">
+                        <c:v>31.4136885723</c:v>
+                      </c:pt>
+                      <c:pt idx="321">
+                        <c:v>32.524544460400001</c:v>
+                      </c:pt>
+                      <c:pt idx="322">
+                        <c:v>31.190412720200001</c:v>
+                      </c:pt>
+                      <c:pt idx="323">
+                        <c:v>31.570414019899999</c:v>
+                      </c:pt>
+                      <c:pt idx="324">
+                        <c:v>29.663035412700001</c:v>
+                      </c:pt>
+                      <c:pt idx="325">
+                        <c:v>31.4262352505</c:v>
+                      </c:pt>
+                      <c:pt idx="326">
+                        <c:v>32.591608252299999</c:v>
+                      </c:pt>
+                      <c:pt idx="327">
+                        <c:v>33.288639615900003</c:v>
+                      </c:pt>
+                      <c:pt idx="328">
+                        <c:v>30.7976684916</c:v>
+                      </c:pt>
+                      <c:pt idx="329">
+                        <c:v>31.324394746300001</c:v>
+                      </c:pt>
+                      <c:pt idx="330">
+                        <c:v>31.597946175499999</c:v>
+                      </c:pt>
+                      <c:pt idx="331">
+                        <c:v>31.242104156700002</c:v>
+                      </c:pt>
+                      <c:pt idx="332">
+                        <c:v>30.899809056399999</c:v>
+                      </c:pt>
+                      <c:pt idx="333">
+                        <c:v>30.010460760200001</c:v>
+                      </c:pt>
+                      <c:pt idx="334">
+                        <c:v>31.185269640600001</c:v>
+                      </c:pt>
+                      <c:pt idx="335">
+                        <c:v>33.135540840600001</c:v>
+                      </c:pt>
+                      <c:pt idx="336">
+                        <c:v>31.6525277422</c:v>
+                      </c:pt>
+                      <c:pt idx="337">
+                        <c:v>30.929387343199998</c:v>
+                      </c:pt>
+                      <c:pt idx="338">
+                        <c:v>32.743880870700004</c:v>
+                      </c:pt>
+                      <c:pt idx="339">
+                        <c:v>33.356214156199997</c:v>
+                      </c:pt>
+                      <c:pt idx="340">
+                        <c:v>33.035943845299997</c:v>
+                      </c:pt>
+                      <c:pt idx="341">
+                        <c:v>33.645250673</c:v>
+                      </c:pt>
+                      <c:pt idx="342">
+                        <c:v>34.200273511500001</c:v>
+                      </c:pt>
+                      <c:pt idx="343">
+                        <c:v>33.173015555500001</c:v>
+                      </c:pt>
+                      <c:pt idx="344">
+                        <c:v>33.480601717900001</c:v>
+                      </c:pt>
+                      <c:pt idx="345">
+                        <c:v>32.955498624800001</c:v>
+                      </c:pt>
+                      <c:pt idx="346">
+                        <c:v>33.778772189100003</c:v>
+                      </c:pt>
+                      <c:pt idx="347">
+                        <c:v>33.829346028700002</c:v>
+                      </c:pt>
+                      <c:pt idx="348">
+                        <c:v>34.542959341200003</c:v>
+                      </c:pt>
+                      <c:pt idx="349">
+                        <c:v>34.6715300324</c:v>
+                      </c:pt>
+                      <c:pt idx="350">
+                        <c:v>34.011169929700003</c:v>
+                      </c:pt>
+                      <c:pt idx="351">
+                        <c:v>34.726496769299999</c:v>
+                      </c:pt>
+                      <c:pt idx="352">
+                        <c:v>33.357369061500002</c:v>
+                      </c:pt>
+                      <c:pt idx="353">
+                        <c:v>33.0810602082</c:v>
+                      </c:pt>
+                      <c:pt idx="354">
+                        <c:v>34.002378067999999</c:v>
+                      </c:pt>
+                      <c:pt idx="355">
+                        <c:v>33.6793945593</c:v>
+                      </c:pt>
+                      <c:pt idx="356">
+                        <c:v>34.543109364999999</c:v>
+                      </c:pt>
+                      <c:pt idx="357">
+                        <c:v>34.443542470700002</c:v>
+                      </c:pt>
+                      <c:pt idx="358">
+                        <c:v>33.3027641726</c:v>
+                      </c:pt>
+                      <c:pt idx="359">
+                        <c:v>32.559949906</c:v>
+                      </c:pt>
+                      <c:pt idx="360">
+                        <c:v>35.149466386999997</c:v>
+                      </c:pt>
+                      <c:pt idx="361">
+                        <c:v>34.716736703700001</c:v>
+                      </c:pt>
+                      <c:pt idx="362">
+                        <c:v>33.497138298599999</c:v>
+                      </c:pt>
+                      <c:pt idx="363">
+                        <c:v>35.984415927500002</c:v>
+                      </c:pt>
+                      <c:pt idx="364">
+                        <c:v>33.583028559900001</c:v>
+                      </c:pt>
+                      <c:pt idx="365">
+                        <c:v>34.474035017699997</c:v>
+                      </c:pt>
+                      <c:pt idx="366">
+                        <c:v>34.418602255899998</c:v>
+                      </c:pt>
+                      <c:pt idx="367">
+                        <c:v>35.339294439100001</c:v>
+                      </c:pt>
+                      <c:pt idx="368">
+                        <c:v>34.474277269700004</c:v>
+                      </c:pt>
+                      <c:pt idx="369">
+                        <c:v>34.852956822099998</c:v>
+                      </c:pt>
+                      <c:pt idx="370">
+                        <c:v>33.6525668815</c:v>
+                      </c:pt>
+                      <c:pt idx="371">
+                        <c:v>36.409201799400002</c:v>
+                      </c:pt>
+                      <c:pt idx="372">
+                        <c:v>36.782031032100001</c:v>
+                      </c:pt>
+                      <c:pt idx="373">
+                        <c:v>36.223686447699997</c:v>
+                      </c:pt>
+                      <c:pt idx="374">
+                        <c:v>35.862340098399997</c:v>
+                      </c:pt>
+                      <c:pt idx="375">
+                        <c:v>34.353003742399999</c:v>
+                      </c:pt>
+                      <c:pt idx="376">
+                        <c:v>36.3096571345</c:v>
+                      </c:pt>
+                      <c:pt idx="377">
+                        <c:v>35.455172282100001</c:v>
+                      </c:pt>
+                      <c:pt idx="378">
+                        <c:v>36.246956836700001</c:v>
+                      </c:pt>
+                      <c:pt idx="379">
+                        <c:v>36.661445204000003</c:v>
+                      </c:pt>
+                      <c:pt idx="380">
+                        <c:v>36.694126746599999</c:v>
+                      </c:pt>
+                      <c:pt idx="381">
+                        <c:v>37.887718350299998</c:v>
+                      </c:pt>
+                      <c:pt idx="382">
+                        <c:v>37.571472940699998</c:v>
+                      </c:pt>
+                      <c:pt idx="383">
+                        <c:v>36.936711783699998</c:v>
+                      </c:pt>
+                      <c:pt idx="384">
+                        <c:v>36.232744878299997</c:v>
+                      </c:pt>
+                      <c:pt idx="385">
+                        <c:v>37.642219037899999</c:v>
+                      </c:pt>
+                      <c:pt idx="386">
+                        <c:v>38.186271753200003</c:v>
+                      </c:pt>
+                      <c:pt idx="387">
+                        <c:v>37.067337245300003</c:v>
+                      </c:pt>
+                      <c:pt idx="388">
+                        <c:v>37.080956483199998</c:v>
+                      </c:pt>
+                      <c:pt idx="389">
+                        <c:v>36.7370038042</c:v>
+                      </c:pt>
+                      <c:pt idx="390">
+                        <c:v>38.091269271199998</c:v>
+                      </c:pt>
+                      <c:pt idx="391">
+                        <c:v>33.367408864799998</c:v>
+                      </c:pt>
+                      <c:pt idx="392">
+                        <c:v>38.478642243000003</c:v>
+                      </c:pt>
+                      <c:pt idx="393">
+                        <c:v>38.456989557699998</c:v>
+                      </c:pt>
+                      <c:pt idx="394">
+                        <c:v>38.3152742089</c:v>
+                      </c:pt>
+                      <c:pt idx="395">
+                        <c:v>38.526665312699997</c:v>
+                      </c:pt>
+                      <c:pt idx="396">
+                        <c:v>38.360203932799998</c:v>
+                      </c:pt>
+                      <c:pt idx="397">
+                        <c:v>37.737182682799997</c:v>
+                      </c:pt>
+                      <c:pt idx="398">
+                        <c:v>37.523629924700003</c:v>
+                      </c:pt>
+                      <c:pt idx="399">
+                        <c:v>37.830573502900002</c:v>
+                      </c:pt>
+                      <c:pt idx="400">
+                        <c:v>37.6340748139</c:v>
+                      </c:pt>
+                      <c:pt idx="401">
+                        <c:v>37.9506549046</c:v>
+                      </c:pt>
+                      <c:pt idx="402">
+                        <c:v>38.804249099800003</c:v>
+                      </c:pt>
+                      <c:pt idx="403">
+                        <c:v>37.557229537700003</c:v>
+                      </c:pt>
+                      <c:pt idx="404">
+                        <c:v>38.544883377700003</c:v>
+                      </c:pt>
+                      <c:pt idx="405">
+                        <c:v>38.294896884400004</c:v>
+                      </c:pt>
+                      <c:pt idx="406">
+                        <c:v>38.217209635400003</c:v>
+                      </c:pt>
+                      <c:pt idx="407">
+                        <c:v>38.5214350165</c:v>
+                      </c:pt>
+                      <c:pt idx="408">
+                        <c:v>38.964521233500001</c:v>
+                      </c:pt>
+                      <c:pt idx="409">
+                        <c:v>38.5170706193</c:v>
+                      </c:pt>
+                      <c:pt idx="410">
+                        <c:v>38.090123848399998</c:v>
+                      </c:pt>
+                      <c:pt idx="411">
+                        <c:v>39.871972578600001</c:v>
+                      </c:pt>
+                      <c:pt idx="412">
+                        <c:v>39.200294026800002</c:v>
+                      </c:pt>
+                      <c:pt idx="413">
+                        <c:v>39.406645977399997</c:v>
+                      </c:pt>
+                      <c:pt idx="414">
+                        <c:v>39.038437977500003</c:v>
+                      </c:pt>
+                      <c:pt idx="415">
+                        <c:v>39.990387401299998</c:v>
+                      </c:pt>
+                      <c:pt idx="416">
+                        <c:v>39.537206125499999</c:v>
+                      </c:pt>
+                      <c:pt idx="417">
+                        <c:v>39.133727470099998</c:v>
+                      </c:pt>
+                      <c:pt idx="418">
+                        <c:v>39.368997103399998</c:v>
+                      </c:pt>
+                      <c:pt idx="419">
+                        <c:v>40.1793418723</c:v>
+                      </c:pt>
+                      <c:pt idx="420">
+                        <c:v>38.971136297800001</c:v>
+                      </c:pt>
+                      <c:pt idx="421">
+                        <c:v>39.564660196299997</c:v>
+                      </c:pt>
+                      <c:pt idx="422">
+                        <c:v>39.868695523900001</c:v>
+                      </c:pt>
+                      <c:pt idx="423">
+                        <c:v>39.765255433900002</c:v>
+                      </c:pt>
+                      <c:pt idx="424">
+                        <c:v>38.865788459400001</c:v>
+                      </c:pt>
+                      <c:pt idx="425">
+                        <c:v>39.530939886100001</c:v>
+                      </c:pt>
+                      <c:pt idx="426">
+                        <c:v>38.677641636099999</c:v>
+                      </c:pt>
+                      <c:pt idx="427">
+                        <c:v>39.205604364700001</c:v>
+                      </c:pt>
+                      <c:pt idx="428">
+                        <c:v>40.742547528700001</c:v>
+                      </c:pt>
+                      <c:pt idx="429">
+                        <c:v>39.684762522200003</c:v>
+                      </c:pt>
+                      <c:pt idx="430">
+                        <c:v>40.961133066099997</c:v>
+                      </c:pt>
+                      <c:pt idx="431">
+                        <c:v>39.667847419799998</c:v>
+                      </c:pt>
+                      <c:pt idx="432">
+                        <c:v>41.153514617399999</c:v>
+                      </c:pt>
+                      <c:pt idx="433">
+                        <c:v>41.583245121300003</c:v>
+                      </c:pt>
+                      <c:pt idx="434">
+                        <c:v>41.242801615899999</c:v>
+                      </c:pt>
+                      <c:pt idx="435">
+                        <c:v>41.078055316399997</c:v>
+                      </c:pt>
+                      <c:pt idx="436">
+                        <c:v>42.209173890499997</c:v>
+                      </c:pt>
+                      <c:pt idx="437">
+                        <c:v>41.743002707099997</c:v>
+                      </c:pt>
+                      <c:pt idx="438">
+                        <c:v>41.746263483100002</c:v>
+                      </c:pt>
+                      <c:pt idx="439">
+                        <c:v>42.314361624699998</c:v>
+                      </c:pt>
+                      <c:pt idx="440">
+                        <c:v>42.642754421699998</c:v>
+                      </c:pt>
+                      <c:pt idx="441">
+                        <c:v>43.120390975900001</c:v>
+                      </c:pt>
+                      <c:pt idx="442">
+                        <c:v>42.733135480100003</c:v>
+                      </c:pt>
+                      <c:pt idx="443">
+                        <c:v>42.686599362300001</c:v>
+                      </c:pt>
+                      <c:pt idx="444">
+                        <c:v>41.386699181499999</c:v>
+                      </c:pt>
+                      <c:pt idx="445">
+                        <c:v>42.831156316200001</c:v>
+                      </c:pt>
+                      <c:pt idx="446">
+                        <c:v>42.290538174700004</c:v>
+                      </c:pt>
+                      <c:pt idx="447">
+                        <c:v>42.644620385400003</c:v>
+                      </c:pt>
+                      <c:pt idx="448">
+                        <c:v>42.241063423100002</c:v>
+                      </c:pt>
+                      <c:pt idx="449">
+                        <c:v>42.998444183700002</c:v>
+                      </c:pt>
+                      <c:pt idx="450">
+                        <c:v>43.724147888300003</c:v>
+                      </c:pt>
+                      <c:pt idx="451">
+                        <c:v>43.390018576599999</c:v>
+                      </c:pt>
+                      <c:pt idx="452">
+                        <c:v>42.934385304700001</c:v>
+                      </c:pt>
+                      <c:pt idx="453">
+                        <c:v>43.170280770799998</c:v>
+                      </c:pt>
+                      <c:pt idx="454">
+                        <c:v>43.548830837200001</c:v>
+                      </c:pt>
+                      <c:pt idx="455">
+                        <c:v>42.7584723119</c:v>
+                      </c:pt>
+                      <c:pt idx="456">
+                        <c:v>42.669734552199998</c:v>
+                      </c:pt>
+                      <c:pt idx="457">
+                        <c:v>42.254637617599997</c:v>
+                      </c:pt>
+                      <c:pt idx="458">
+                        <c:v>42.8608734269</c:v>
+                      </c:pt>
+                      <c:pt idx="459">
+                        <c:v>40.9249085947</c:v>
+                      </c:pt>
+                      <c:pt idx="460">
+                        <c:v>40.859974979199997</c:v>
+                      </c:pt>
+                      <c:pt idx="461">
+                        <c:v>41.746872002099998</c:v>
+                      </c:pt>
+                      <c:pt idx="462">
+                        <c:v>42.210343185399999</c:v>
+                      </c:pt>
+                      <c:pt idx="463">
+                        <c:v>41.225880367599999</c:v>
+                      </c:pt>
+                      <c:pt idx="464">
+                        <c:v>42.103604904999997</c:v>
+                      </c:pt>
+                      <c:pt idx="465">
+                        <c:v>42.466792485299997</c:v>
+                      </c:pt>
+                      <c:pt idx="466">
+                        <c:v>42.1720901148</c:v>
+                      </c:pt>
+                      <c:pt idx="467">
+                        <c:v>42.267175579300002</c:v>
+                      </c:pt>
+                      <c:pt idx="468">
+                        <c:v>42.3992250923</c:v>
+                      </c:pt>
+                      <c:pt idx="469">
+                        <c:v>42.2099780936</c:v>
+                      </c:pt>
+                      <c:pt idx="470">
+                        <c:v>40.737405295999999</c:v>
+                      </c:pt>
+                      <c:pt idx="471">
+                        <c:v>43.755621361400003</c:v>
+                      </c:pt>
+                      <c:pt idx="472">
+                        <c:v>42.169057707299999</c:v>
+                      </c:pt>
+                      <c:pt idx="473">
+                        <c:v>43.657878849600003</c:v>
+                      </c:pt>
+                      <c:pt idx="474">
+                        <c:v>43.789273366499998</c:v>
+                      </c:pt>
+                      <c:pt idx="475">
+                        <c:v>40.960954902799998</c:v>
+                      </c:pt>
+                      <c:pt idx="476">
+                        <c:v>44.052751321199999</c:v>
+                      </c:pt>
+                      <c:pt idx="477">
+                        <c:v>43.445927968100001</c:v>
+                      </c:pt>
+                      <c:pt idx="478">
+                        <c:v>44.2578194544</c:v>
+                      </c:pt>
+                      <c:pt idx="479">
+                        <c:v>43.385585645100001</c:v>
+                      </c:pt>
+                      <c:pt idx="480">
+                        <c:v>42.475556060800002</c:v>
+                      </c:pt>
+                      <c:pt idx="481">
+                        <c:v>41.920039492000001</c:v>
+                      </c:pt>
+                      <c:pt idx="482">
+                        <c:v>45.495606476399999</c:v>
+                      </c:pt>
+                      <c:pt idx="483">
+                        <c:v>44.260251434099999</c:v>
+                      </c:pt>
+                      <c:pt idx="484">
+                        <c:v>44.297203430099998</c:v>
+                      </c:pt>
+                      <c:pt idx="485">
+                        <c:v>42.701298487099997</c:v>
+                      </c:pt>
+                      <c:pt idx="486">
+                        <c:v>42.563773471499999</c:v>
+                      </c:pt>
+                      <c:pt idx="487">
+                        <c:v>44.391697796800003</c:v>
+                      </c:pt>
+                      <c:pt idx="488">
+                        <c:v>43.529549232400001</c:v>
+                      </c:pt>
+                      <c:pt idx="489">
+                        <c:v>45.029890659899998</c:v>
+                      </c:pt>
+                      <c:pt idx="490">
+                        <c:v>45.471671121699998</c:v>
+                      </c:pt>
+                      <c:pt idx="491">
+                        <c:v>44.427456759099996</c:v>
+                      </c:pt>
+                      <c:pt idx="492">
+                        <c:v>46.156259693499997</c:v>
+                      </c:pt>
+                      <c:pt idx="493">
+                        <c:v>47.128586458599997</c:v>
+                      </c:pt>
+                      <c:pt idx="494">
+                        <c:v>46.077965471399999</c:v>
+                      </c:pt>
+                      <c:pt idx="495">
+                        <c:v>47.910677054499999</c:v>
+                      </c:pt>
+                      <c:pt idx="496">
+                        <c:v>47.136277521499998</c:v>
+                      </c:pt>
+                      <c:pt idx="497">
+                        <c:v>47.602797053300002</c:v>
+                      </c:pt>
+                      <c:pt idx="498">
+                        <c:v>46.826285980999998</c:v>
+                      </c:pt>
+                      <c:pt idx="499">
+                        <c:v>45.335299948699998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="627975288"/>
+        <c:axId val="358167000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6549,6 +9151,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual location</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6567,7 +9225,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6586,7 +9244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627976464"/>
+        <c:crossAx val="358173664"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6596,7 +9254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627976464"/>
+        <c:axId val="358173664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -6617,6 +9275,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted location</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -6650,7 +9364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627975288"/>
+        <c:crossAx val="358167000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6663,6 +9377,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7556,8 +10302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z101" sqref="Z101"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
